--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd73_252.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd73_252.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2434"/>
+  <dimension ref="A1:N2435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.081601142883301</v>
+        <v>3.44386887550354</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006975889205932617</v>
+        <v>0.01319193840026855</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2055270671844482</v>
+        <v>0.4027009010314941</v>
       </c>
     </row>
     <row r="8">
@@ -17537,7 +17537,7 @@
         </is>
       </c>
       <c r="B2428" t="n">
-        <v>8.468680921610659e-06</v>
+        <v>8.466468062156042e-06</v>
       </c>
     </row>
     <row r="2429">
@@ -17547,116 +17547,126 @@
         </is>
       </c>
       <c r="B2429" t="n">
-        <v>82576.96196422292</v>
+        <v>82968.96196422291</v>
       </c>
     </row>
     <row r="2430">
       <c r="A2430" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B2430" t="n">
-        <v>87</v>
+        <v>0.9947607886635484</v>
       </c>
     </row>
     <row r="2431">
       <c r="A2431" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B2431" t="n">
-        <v>2123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2432">
       <c r="A2432" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B2432" t="n">
-        <v>14</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="2433">
       <c r="A2433" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B2433" t="n">
-        <v>2.386099815368652</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2434">
       <c r="A2434" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B2434" t="n">
+        <v>4.023989915847778</v>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B2434" t="inlineStr">
+      <c r="B2435" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C2434" t="inlineStr">
+      <c r="C2435" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D2434" t="inlineStr">
+      <c r="D2435" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E2434" t="inlineStr">
+      <c r="E2435" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F2434" t="inlineStr">
+      <c r="F2435" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G2434" t="inlineStr">
+      <c r="G2435" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H2434" t="inlineStr">
+      <c r="H2435" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I2434" t="inlineStr">
+      <c r="I2435" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J2434" t="inlineStr">
+      <c r="J2435" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K2434" t="inlineStr">
+      <c r="K2435" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L2434" t="inlineStr">
+      <c r="L2435" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M2434" t="inlineStr">
+      <c r="M2435" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N2434" t="inlineStr">
+      <c r="N2435" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd73_252.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_rd73_252.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.44386887550354</v>
+        <v>0.001907825469970703</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01319193840026855</v>
+        <v>0.0008418560028076172</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4027009010314941</v>
+        <v>0.3266921043395996</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 1), (0, 0), (1, 1), (1, 3), (2, 0), (3, 1), (0, 1), (2, 2), (1, 0), (1, 2)]</t>
+          <t>[[2, 1], [0, 0], [1, 1], [1, 3], [2, 0], [3, 1], [0, 1], [2, 2], [1, 0], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[(2, 3), (0, 3), (1, 1), (1, 3), (0, 0), (0, 2), (0, 1), (2, 1), (2, 2), (1, 2)]</t>
+          <t>[[2, 3], [0, 3], [1, 1], [1, 3], [0, 0], [0, 2], [0, 1], [2, 1], [2, 2], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>[(0, 1), (0, 3), (2, 1), (0, 2), (1, 0), (0, 0), (1, 1), (2, 0), (2, 2), (1, 2)]</t>
+          <t>[[0, 1], [0, 3], [2, 1], [0, 2], [1, 0], [0, 0], [1, 1], [2, 0], [2, 2], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>[(3, 2), (3, 0), (1, 1), (1, 0), (2, 3), (0, 1), (2, 0), (2, 1), (2, 2), (1, 2)]</t>
+          <t>[[3, 2], [3, 0], [1, 1], [1, 0], [2, 3], [0, 1], [2, 0], [2, 1], [2, 2], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>[(0, 1), (3, 2), (2, 0), (1, 1), (1, 0), (3, 0), (3, 1), (2, 1), (2, 2), (1, 2)]</t>
+          <t>[[0, 1], [3, 2], [2, 0], [1, 1], [1, 0], [3, 0], [3, 1], [2, 1], [2, 2], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -5292,7 +5292,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>[(0, 1), (0, 0), (2, 1), (1, 2), (1, 3), (2, 2), (0, 2), (2, 0), (1, 1), (1, 0)]</t>
+          <t>[[0, 1], [0, 0], [2, 1], [1, 2], [1, 3], [2, 2], [0, 2], [2, 0], [1, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 0), (0, 2), (0, 3), (0, 0), (2, 2), (1, 2), (2, 3), (1, 1), (1, 3)]</t>
+          <t>[[0, 1], [1, 0], [0, 2], [0, 3], [0, 0], [2, 2], [1, 2], [2, 3], [1, 1], [1, 3]]</t>
         </is>
       </c>
     </row>
@@ -7783,7 +7783,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>[(0, 2), (2, 2), (1, 0), (1, 3), (0, 0), (0, 1), (2, 0), (2, 1), (1, 1), (1, 2)]</t>
+          <t>[[0, 2], [2, 2], [1, 0], [1, 3], [0, 0], [0, 1], [2, 0], [2, 1], [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -9860,7 +9860,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>[(2, 2), (2, 0), (0, 1), (1, 3), (0, 2), (1, 0), (2, 1), (0, 0), (1, 2), (1, 1)]</t>
+          <t>[[2, 2], [2, 0], [0, 1], [1, 3], [0, 2], [1, 0], [2, 1], [0, 0], [1, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -11655,7 +11655,7 @@
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>[(1, 3), (2, 3), (1, 0), (1, 2), (0, 2), (2, 1), (0, 1), (2, 2), (1, 1), (2, 0)]</t>
+          <t>[[1, 3], [2, 3], [1, 0], [1, 2], [0, 2], [2, 1], [0, 1], [2, 2], [1, 1], [2, 0]]</t>
         </is>
       </c>
     </row>
@@ -12584,7 +12584,7 @@
     <row r="1726">
       <c r="A1726" t="inlineStr">
         <is>
-          <t>[(2, 2), (2, 3), (0, 0), (1, 2), (1, 1), (1, 0), (2, 0), (0, 1), (2, 1), (0, 2)]</t>
+          <t>[[2, 2], [2, 3], [0, 0], [1, 2], [1, 1], [1, 0], [2, 0], [0, 1], [2, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
     <row r="1889">
       <c r="A1889" t="inlineStr">
         <is>
-          <t>[(1, 2), (2, 3), (2, 1), (0, 1), (1, 1), (0, 0), (1, 0), (2, 0), (2, 2), (0, 2)]</t>
+          <t>[[1, 2], [2, 3], [2, 1], [0, 1], [1, 1], [0, 0], [1, 0], [2, 0], [2, 2], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -14480,7 +14480,7 @@
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>[(1, 0), (2, 1), (0, 3), (0, 0), (1, 3), (2, 2), (1, 1), (1, 2), (0, 2), (0, 1)]</t>
+          <t>[[1, 0], [2, 1], [0, 3], [0, 0], [1, 3], [2, 2], [1, 1], [1, 2], [0, 2], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
     <row r="2231">
       <c r="A2231" t="inlineStr">
         <is>
-          <t>[(1, 3), (2, 2), (1, 2), (0, 1), (1, 0), (0, 2), (2, 0), (2, 1), (0, 0), (1, 1)]</t>
+          <t>[[1, 3], [2, 2], [1, 2], [0, 1], [1, 0], [0, 2], [2, 0], [2, 1], [0, 0], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -17597,7 +17597,7 @@
         </is>
       </c>
       <c r="B2434" t="n">
-        <v>4.023989915847778</v>
+        <v>0.4360678195953369</v>
       </c>
     </row>
     <row r="2435">
